--- a/Resources/ActionTable/ActionTable.xlsx
+++ b/Resources/ActionTable/ActionTable.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="226">
   <si>
-    <t>↓states</t>
-  </si>
-  <si>
     <t>!=</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>r30</t>
+  </si>
+  <si>
+    <t>states</t>
   </si>
 </sst>
 </file>
@@ -1268,240 +1268,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BX155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M131" workbookViewId="0">
-      <selection sqref="A1:BX155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:76" ht="28.8">
       <c r="A1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:76">
@@ -1540,7 +1540,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -1552,10 +1552,10 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1734,10 +1734,10 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR4" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1818,7 +1818,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -1830,10 +1830,10 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1906,7 +1906,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -1918,10 +1918,10 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
       <c r="AQ6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AR6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1994,7 +1994,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -2006,10 +2006,10 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AR7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2082,7 +2082,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -2094,10 +2094,10 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -2169,7 +2169,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -2253,7 +2253,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -2337,7 +2337,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2424,7 +2424,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -2436,10 +2436,10 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AR12" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
@@ -2482,7 +2482,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -2561,73 +2561,73 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -2638,7 +2638,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -2650,20 +2650,20 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS14" s="1"/>
       <c r="AT14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
@@ -2716,7 +2716,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2789,14 +2789,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2873,14 +2873,14 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2981,7 +2981,7 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -3058,35 +3058,35 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO19" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
@@ -3157,29 +3157,29 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
@@ -3259,7 +3259,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -3315,13 +3315,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3408,7 +3408,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3498,7 +3498,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -3603,7 +3603,7 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="1"/>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3674,7 +3674,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
@@ -3686,10 +3686,10 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
@@ -3730,18 +3730,18 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -3768,7 +3768,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
@@ -3780,18 +3780,18 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AR27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS27" s="1"/>
       <c r="AT27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
@@ -3828,18 +3828,18 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3847,7 +3847,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3866,7 +3866,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
@@ -3878,18 +3878,18 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS28" s="1"/>
       <c r="AT28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
@@ -3926,18 +3926,18 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3945,7 +3945,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3964,7 +3964,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3976,18 +3976,18 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AR29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
@@ -4024,18 +4024,18 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -4043,7 +4043,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -4062,7 +4062,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -4074,18 +4074,18 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS30" s="1"/>
       <c r="AT30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
@@ -4122,18 +4122,18 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -4141,7 +4141,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -4160,7 +4160,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
@@ -4172,18 +4172,18 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AR31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AS31" s="1"/>
       <c r="AT31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
@@ -4233,7 +4233,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -4309,14 +4309,14 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -4398,7 +4398,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -4499,7 +4499,7 @@
       <c r="AF35" s="1"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -4575,29 +4575,29 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
@@ -4680,7 +4680,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -4761,7 +4761,7 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4844,25 +4844,25 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AH39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -4872,16 +4872,16 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AR39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AT39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
@@ -4943,29 +4943,29 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
       <c r="AN40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
@@ -5026,7 +5026,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -5099,13 +5099,13 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5201,7 +5201,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -5261,57 +5261,57 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -5336,7 +5336,7 @@
       <c r="AS44" s="1"/>
       <c r="AT44" s="1"/>
       <c r="AU44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV44" s="1"/>
       <c r="AW44" s="3"/>
@@ -5387,7 +5387,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -5421,7 +5421,7 @@
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
       <c r="AV45" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
@@ -5465,14 +5465,14 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -5585,7 +5585,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
@@ -5649,29 +5649,29 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
       <c r="AN48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
@@ -5755,7 +5755,7 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -5834,7 +5834,7 @@
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
       <c r="AG50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
@@ -5846,10 +5846,10 @@
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
       <c r="AQ50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1"/>
@@ -5921,7 +5921,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
@@ -5999,29 +5999,29 @@
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
       <c r="AN52" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -6102,7 +6102,7 @@
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
       <c r="AG53" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -6114,10 +6114,10 @@
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
       <c r="AQ53" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR53" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1"/>
@@ -6199,7 +6199,7 @@
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
       <c r="AR54" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1"/>
@@ -6247,13 +6247,13 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -6351,29 +6351,29 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
       <c r="AN56" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
@@ -6429,14 +6429,14 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -6519,7 +6519,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -6553,7 +6553,7 @@
       <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
       <c r="AV58" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
@@ -6614,23 +6614,23 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE59" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AE59" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
@@ -6641,13 +6641,13 @@
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
       <c r="AR59" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS59" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT59" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
@@ -6722,23 +6722,23 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
@@ -6749,13 +6749,13 @@
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
       <c r="AR60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -6826,7 +6826,7 @@
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
       <c r="AG61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
@@ -6838,10 +6838,10 @@
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
       <c r="AQ61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AR61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1"/>
@@ -6905,29 +6905,29 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
       <c r="AN62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
@@ -7000,23 +7000,23 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE63" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AE63" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI63" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
@@ -7028,14 +7028,14 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
       <c r="AS63" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AW63" s="3"/>
       <c r="AX63" s="4">
@@ -7104,23 +7104,23 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
@@ -7131,13 +7131,13 @@
       <c r="AP64" s="1"/>
       <c r="AQ64" s="1"/>
       <c r="AR64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AT64" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
@@ -7200,23 +7200,23 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
       <c r="AD65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
@@ -7228,14 +7228,14 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
       <c r="AS65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AW65" s="3"/>
       <c r="AX65" s="3"/>
@@ -7274,7 +7274,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7356,7 +7356,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -7460,23 +7460,23 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
       <c r="AD68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE68" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AE68" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
@@ -7488,10 +7488,10 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
       <c r="AS68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT68" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -7562,23 +7562,23 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
       <c r="AD69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
@@ -7590,14 +7590,14 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
       <c r="AS69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU69" s="1"/>
       <c r="AV69" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AW69" s="3"/>
       <c r="AX69" s="3"/>
@@ -7644,7 +7644,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -7652,13 +7652,13 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
@@ -7733,7 +7733,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -7815,7 +7815,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -7883,63 +7883,63 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -7964,7 +7964,7 @@
       <c r="AS73" s="1"/>
       <c r="AT73" s="1"/>
       <c r="AU73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV73" s="1"/>
       <c r="AW73" s="3"/>
@@ -8015,7 +8015,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -8049,7 +8049,7 @@
       <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
       <c r="AV74" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AW74" s="3"/>
       <c r="AX74" s="3"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -8112,25 +8112,25 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
       <c r="AD75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF75" s="1"/>
       <c r="AG75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
@@ -8140,20 +8140,20 @@
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AT75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AU75" s="1"/>
       <c r="AV75" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
@@ -8214,23 +8214,23 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
       <c r="AD76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF76" s="1"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
@@ -8242,14 +8242,14 @@
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
       <c r="AS76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AT76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AU76" s="1"/>
       <c r="AV76" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
@@ -8292,14 +8292,14 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -8317,31 +8317,31 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL77" s="1"/>
       <c r="AM77" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
@@ -8414,14 +8414,14 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -8439,31 +8439,31 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL78" s="1"/>
       <c r="AM78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
@@ -8572,7 +8572,7 @@
       <c r="AQ79" s="1"/>
       <c r="AR79" s="1"/>
       <c r="AS79" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AT79" s="1"/>
       <c r="AU79" s="1"/>
@@ -8618,14 +8618,14 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L80" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -8643,31 +8643,31 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG80" s="1"/>
       <c r="AH80" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL80" s="1"/>
       <c r="AM80" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ80" s="1"/>
       <c r="AR80" s="1"/>
@@ -8765,7 +8765,7 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
@@ -8824,14 +8824,14 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L82" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -8849,31 +8849,31 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG82" s="1"/>
       <c r="AH82" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
       <c r="AK82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL82" s="1"/>
       <c r="AM82" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ82" s="1"/>
       <c r="AR82" s="1"/>
@@ -8964,23 +8964,23 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
       <c r="AD83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
@@ -8992,14 +8992,14 @@
       <c r="AQ83" s="1"/>
       <c r="AR83" s="1"/>
       <c r="AS83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AU83" s="1"/>
       <c r="AV83" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AW83" s="3"/>
       <c r="AX83" s="3"/>
@@ -9060,23 +9060,23 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
       <c r="AA84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
       <c r="AD84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1"/>
@@ -9088,14 +9088,14 @@
       <c r="AQ84" s="1"/>
       <c r="AR84" s="1"/>
       <c r="AS84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AT84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AU84" s="1"/>
       <c r="AV84" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AW84" s="3"/>
       <c r="AX84" s="3"/>
@@ -9133,11 +9133,11 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -9180,7 +9180,7 @@
       <c r="AS85" s="1"/>
       <c r="AT85" s="1"/>
       <c r="AU85" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV85" s="1"/>
       <c r="AW85" s="3"/>
@@ -9217,21 +9217,21 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -9239,27 +9239,27 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q86" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q86" s="2" t="s">
+      <c r="R86" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U86" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="U86" s="2" t="s">
+      <c r="V86" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="V86" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
@@ -9284,7 +9284,7 @@
       <c r="AS86" s="1"/>
       <c r="AT86" s="1"/>
       <c r="AU86" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AV86" s="1"/>
       <c r="AW86" s="3"/>
@@ -9321,53 +9321,53 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S87" s="1"/>
       <c r="T87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
@@ -9392,7 +9392,7 @@
       <c r="AS87" s="1"/>
       <c r="AT87" s="1"/>
       <c r="AU87" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AV87" s="1"/>
       <c r="AW87" s="3"/>
@@ -9429,57 +9429,57 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="H88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S88" s="1"/>
       <c r="T88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
@@ -9504,7 +9504,7 @@
       <c r="AS88" s="1"/>
       <c r="AT88" s="1"/>
       <c r="AU88" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV88" s="1"/>
       <c r="AW88" s="3"/>
@@ -9541,57 +9541,57 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S89" s="1"/>
       <c r="T89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
@@ -9616,7 +9616,7 @@
       <c r="AS89" s="1"/>
       <c r="AT89" s="1"/>
       <c r="AU89" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AV89" s="1"/>
       <c r="AW89" s="3"/>
@@ -9653,65 +9653,65 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="M90" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W90" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
@@ -9736,7 +9736,7 @@
       <c r="AS90" s="1"/>
       <c r="AT90" s="1"/>
       <c r="AU90" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV90" s="1"/>
       <c r="AW90" s="3"/>
@@ -9805,7 +9805,7 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
@@ -9891,7 +9891,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
@@ -9945,67 +9945,67 @@
         <v>91</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S93" s="1"/>
       <c r="T93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
@@ -10030,7 +10030,7 @@
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
       <c r="AU93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV93" s="1"/>
       <c r="AW93" s="3"/>
@@ -10074,14 +10074,14 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -10099,31 +10099,31 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
       <c r="AK94" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL94" s="1"/>
       <c r="AM94" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ94" s="1"/>
       <c r="AR94" s="1"/>
@@ -10188,14 +10188,14 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L95" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -10213,31 +10213,31 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG95" s="1"/>
       <c r="AH95" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
       <c r="AK95" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL95" s="1"/>
       <c r="AM95" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
       <c r="AP95" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ95" s="1"/>
       <c r="AR95" s="1"/>
@@ -10295,57 +10295,57 @@
         <v>94</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S96" s="1"/>
       <c r="T96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
@@ -10370,7 +10370,7 @@
       <c r="AS96" s="1"/>
       <c r="AT96" s="1"/>
       <c r="AU96" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AV96" s="1"/>
       <c r="AW96" s="3"/>
@@ -10407,57 +10407,57 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S97" s="1"/>
       <c r="T97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
@@ -10482,7 +10482,7 @@
       <c r="AS97" s="1"/>
       <c r="AT97" s="1"/>
       <c r="AU97" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AV97" s="1"/>
       <c r="AW97" s="3"/>
@@ -10519,57 +10519,57 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S98" s="1"/>
       <c r="T98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
@@ -10594,7 +10594,7 @@
       <c r="AS98" s="1"/>
       <c r="AT98" s="1"/>
       <c r="AU98" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AV98" s="1"/>
       <c r="AW98" s="3"/>
@@ -10631,57 +10631,57 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S99" s="1"/>
       <c r="T99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
@@ -10706,7 +10706,7 @@
       <c r="AS99" s="1"/>
       <c r="AT99" s="1"/>
       <c r="AU99" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AV99" s="1"/>
       <c r="AW99" s="3"/>
@@ -10743,57 +10743,57 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S100" s="1"/>
       <c r="T100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
@@ -10818,7 +10818,7 @@
       <c r="AS100" s="1"/>
       <c r="AT100" s="1"/>
       <c r="AU100" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AV100" s="1"/>
       <c r="AW100" s="3"/>
@@ -10855,57 +10855,57 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S101" s="1"/>
       <c r="T101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
@@ -10930,7 +10930,7 @@
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
       <c r="AU101" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AV101" s="1"/>
       <c r="AW101" s="3"/>
@@ -10967,57 +10967,57 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S102" s="1"/>
       <c r="T102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
@@ -11042,7 +11042,7 @@
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
       <c r="AU102" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AV102" s="1"/>
       <c r="AW102" s="3"/>
@@ -11079,57 +11079,57 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S103" s="1"/>
       <c r="T103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
@@ -11154,7 +11154,7 @@
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
       <c r="AU103" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AV103" s="1"/>
       <c r="AW103" s="3"/>
@@ -11191,57 +11191,57 @@
         <v>102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S104" s="1"/>
       <c r="T104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
@@ -11266,7 +11266,7 @@
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
       <c r="AU104" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AV104" s="1"/>
       <c r="AW104" s="3"/>
@@ -11305,11 +11305,11 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -11352,7 +11352,7 @@
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
       <c r="AU105" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV105" s="1"/>
       <c r="AW105" s="3"/>
@@ -11392,7 +11392,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -11473,7 +11473,7 @@
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -11487,7 +11487,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
       <c r="P107" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -11520,7 +11520,7 @@
       <c r="AS107" s="1"/>
       <c r="AT107" s="1"/>
       <c r="AU107" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV107" s="1"/>
       <c r="AW107" s="3"/>
@@ -11557,67 +11557,67 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O108" s="1"/>
       <c r="P108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
@@ -11642,7 +11642,7 @@
       <c r="AS108" s="1"/>
       <c r="AT108" s="1"/>
       <c r="AU108" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AV108" s="1"/>
       <c r="AW108" s="3"/>
@@ -11681,7 +11681,7 @@
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -11703,7 +11703,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
       <c r="X109" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
@@ -11728,7 +11728,7 @@
       <c r="AS109" s="1"/>
       <c r="AT109" s="1"/>
       <c r="AU109" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV109" s="1"/>
       <c r="AW109" s="3"/>
@@ -11790,23 +11790,23 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
       <c r="AA110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
       <c r="AD110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE110" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AE110" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AF110" s="1"/>
       <c r="AG110" s="1"/>
       <c r="AH110" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI110" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ110" s="1"/>
       <c r="AK110" s="1"/>
@@ -11818,10 +11818,10 @@
       <c r="AQ110" s="1"/>
       <c r="AR110" s="1"/>
       <c r="AS110" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT110" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU110" s="1"/>
       <c r="AV110" s="1"/>
@@ -11874,14 +11874,14 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L111" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
@@ -11899,31 +11899,31 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
       <c r="AB111" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC111" s="1"/>
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG111" s="1"/>
       <c r="AH111" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
       <c r="AK111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL111" s="1"/>
       <c r="AM111" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN111" s="1"/>
       <c r="AO111" s="1"/>
       <c r="AP111" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ111" s="1"/>
       <c r="AR111" s="1"/>
@@ -11994,14 +11994,14 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L112" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
@@ -12019,31 +12019,31 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC112" s="1"/>
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG112" s="1"/>
       <c r="AH112" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
       <c r="AK112" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL112" s="1"/>
       <c r="AM112" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN112" s="1"/>
       <c r="AO112" s="1"/>
       <c r="AP112" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ112" s="1"/>
       <c r="AR112" s="1"/>
@@ -12114,14 +12114,14 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L113" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
@@ -12139,31 +12139,31 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
       <c r="AB113" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC113" s="1"/>
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG113" s="1"/>
       <c r="AH113" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
       <c r="AK113" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL113" s="1"/>
       <c r="AM113" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN113" s="1"/>
       <c r="AO113" s="1"/>
       <c r="AP113" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ113" s="1"/>
       <c r="AR113" s="1"/>
@@ -12232,14 +12232,14 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L114" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
@@ -12257,31 +12257,31 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
       <c r="AB114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC114" s="1"/>
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG114" s="1"/>
       <c r="AH114" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
       <c r="AK114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL114" s="1"/>
       <c r="AM114" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN114" s="1"/>
       <c r="AO114" s="1"/>
       <c r="AP114" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ114" s="1"/>
       <c r="AR114" s="1"/>
@@ -12350,14 +12350,14 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L115" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
@@ -12375,31 +12375,31 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG115" s="1"/>
       <c r="AH115" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
       <c r="AK115" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL115" s="1"/>
       <c r="AM115" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN115" s="1"/>
       <c r="AO115" s="1"/>
       <c r="AP115" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ115" s="1"/>
       <c r="AR115" s="1"/>
@@ -12468,14 +12468,14 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L116" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -12493,31 +12493,31 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG116" s="1"/>
       <c r="AH116" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
       <c r="AK116" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL116" s="1"/>
       <c r="AM116" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN116" s="1"/>
       <c r="AO116" s="1"/>
       <c r="AP116" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ116" s="1"/>
       <c r="AR116" s="1"/>
@@ -12586,14 +12586,14 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L117" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -12611,31 +12611,31 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
       <c r="AB117" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG117" s="1"/>
       <c r="AH117" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
       <c r="AK117" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL117" s="1"/>
       <c r="AM117" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN117" s="1"/>
       <c r="AO117" s="1"/>
       <c r="AP117" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ117" s="1"/>
       <c r="AR117" s="1"/>
@@ -12704,14 +12704,14 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L118" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -12729,31 +12729,31 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
       <c r="AB118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC118" s="1"/>
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG118" s="1"/>
       <c r="AH118" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
       <c r="AK118" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL118" s="1"/>
       <c r="AM118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN118" s="1"/>
       <c r="AO118" s="1"/>
       <c r="AP118" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ118" s="1"/>
       <c r="AR118" s="1"/>
@@ -12822,14 +12822,14 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L119" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -12847,31 +12847,31 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
       <c r="AB119" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC119" s="1"/>
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG119" s="1"/>
       <c r="AH119" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
       <c r="AK119" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL119" s="1"/>
       <c r="AM119" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN119" s="1"/>
       <c r="AO119" s="1"/>
       <c r="AP119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ119" s="1"/>
       <c r="AR119" s="1"/>
@@ -12938,14 +12938,14 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L120" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -12963,31 +12963,31 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
       <c r="AB120" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC120" s="1"/>
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG120" s="1"/>
       <c r="AH120" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
       <c r="AK120" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL120" s="1"/>
       <c r="AM120" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN120" s="1"/>
       <c r="AO120" s="1"/>
       <c r="AP120" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
@@ -13054,14 +13054,14 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L121" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -13079,31 +13079,31 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
       <c r="AB121" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC121" s="1"/>
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG121" s="1"/>
       <c r="AH121" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
       <c r="AK121" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL121" s="1"/>
       <c r="AM121" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN121" s="1"/>
       <c r="AO121" s="1"/>
       <c r="AP121" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ121" s="1"/>
       <c r="AR121" s="1"/>
@@ -13168,14 +13168,14 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L122" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -13193,31 +13193,31 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
       <c r="AB122" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC122" s="1"/>
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG122" s="1"/>
       <c r="AH122" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
       <c r="AK122" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL122" s="1"/>
       <c r="AM122" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN122" s="1"/>
       <c r="AO122" s="1"/>
       <c r="AP122" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ122" s="1"/>
       <c r="AR122" s="1"/>
@@ -13275,57 +13275,57 @@
         <v>121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O123" s="1"/>
       <c r="P123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S123" s="1"/>
       <c r="T123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
@@ -13350,7 +13350,7 @@
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
       <c r="AU123" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AV123" s="1"/>
       <c r="AW123" s="3"/>
@@ -13387,57 +13387,57 @@
         <v>122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O124" s="1"/>
       <c r="P124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S124" s="1"/>
       <c r="T124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
@@ -13462,7 +13462,7 @@
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
       <c r="AU124" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AV124" s="1"/>
       <c r="AW124" s="3"/>
@@ -13499,61 +13499,61 @@
         <v>123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O125" s="1"/>
       <c r="P125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S125" s="1"/>
       <c r="T125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W125" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
@@ -13578,7 +13578,7 @@
       <c r="AS125" s="1"/>
       <c r="AT125" s="1"/>
       <c r="AU125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AV125" s="1"/>
       <c r="AW125" s="3"/>
@@ -13615,61 +13615,61 @@
         <v>124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O126" s="1"/>
       <c r="P126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S126" s="1"/>
       <c r="T126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W126" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
@@ -13694,7 +13694,7 @@
       <c r="AS126" s="1"/>
       <c r="AT126" s="1"/>
       <c r="AU126" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AV126" s="1"/>
       <c r="AW126" s="3"/>
@@ -13738,14 +13738,14 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -13763,31 +13763,31 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
       <c r="AB127" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC127" s="1"/>
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG127" s="1"/>
       <c r="AH127" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
       <c r="AK127" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL127" s="1"/>
       <c r="AM127" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN127" s="1"/>
       <c r="AO127" s="1"/>
       <c r="AP127" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ127" s="1"/>
       <c r="AR127" s="1"/>
@@ -13855,57 +13855,57 @@
         <v>126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S128" s="1"/>
       <c r="T128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W128" s="1"/>
       <c r="X128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
@@ -13930,7 +13930,7 @@
       <c r="AS128" s="1"/>
       <c r="AT128" s="1"/>
       <c r="AU128" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AV128" s="1"/>
       <c r="AW128" s="3"/>
@@ -13967,57 +13967,57 @@
         <v>127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S129" s="1"/>
       <c r="T129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
@@ -14042,7 +14042,7 @@
       <c r="AS129" s="1"/>
       <c r="AT129" s="1"/>
       <c r="AU129" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV129" s="1"/>
       <c r="AW129" s="3"/>
@@ -14104,23 +14104,23 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
       <c r="AA130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
       <c r="AD130" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE130" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AE130" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI130" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
@@ -14132,10 +14132,10 @@
       <c r="AQ130" s="1"/>
       <c r="AR130" s="1"/>
       <c r="AS130" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT130" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
@@ -14188,14 +14188,14 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J131" s="1"/>
       <c r="K131" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L131" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -14213,31 +14213,31 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
       <c r="AB131" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC131" s="1"/>
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG131" s="1"/>
       <c r="AH131" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL131" s="1"/>
       <c r="AM131" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN131" s="1"/>
       <c r="AO131" s="1"/>
       <c r="AP131" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ131" s="1"/>
       <c r="AR131" s="1"/>
@@ -14328,23 +14328,23 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
       <c r="AA132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
       <c r="AD132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
       <c r="AH132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ132" s="1"/>
       <c r="AK132" s="1"/>
@@ -14356,14 +14356,14 @@
       <c r="AQ132" s="1"/>
       <c r="AR132" s="1"/>
       <c r="AS132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU132" s="1"/>
       <c r="AV132" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AW132" s="3"/>
       <c r="AX132" s="3"/>
@@ -14399,67 +14399,67 @@
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O133" s="1"/>
       <c r="P133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
@@ -14484,7 +14484,7 @@
       <c r="AS133" s="1"/>
       <c r="AT133" s="1"/>
       <c r="AU133" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV133" s="1"/>
       <c r="AW133" s="3"/>
@@ -14546,23 +14546,23 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
       <c r="AA134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
       <c r="AD134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF134" s="1"/>
       <c r="AG134" s="1"/>
       <c r="AH134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AI134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ134" s="1"/>
       <c r="AK134" s="1"/>
@@ -14574,14 +14574,14 @@
       <c r="AQ134" s="1"/>
       <c r="AR134" s="1"/>
       <c r="AS134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AT134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU134" s="1"/>
       <c r="AV134" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AW134" s="3"/>
       <c r="AX134" s="3"/>
@@ -14617,21 +14617,21 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -14639,27 +14639,27 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q135" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R135" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="R135" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="S135" s="1"/>
       <c r="T135" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U135" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="U135" s="2" t="s">
+      <c r="V135" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="V135" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
@@ -14684,7 +14684,7 @@
       <c r="AS135" s="1"/>
       <c r="AT135" s="1"/>
       <c r="AU135" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AV135" s="1"/>
       <c r="AW135" s="3"/>
@@ -14721,21 +14721,21 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -14743,27 +14743,27 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q136" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R136" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="S136" s="1"/>
       <c r="T136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="U136" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="U136" s="2" t="s">
+      <c r="V136" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="V136" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
@@ -14788,7 +14788,7 @@
       <c r="AS136" s="1"/>
       <c r="AT136" s="1"/>
       <c r="AU136" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV136" s="1"/>
       <c r="AW136" s="3"/>
@@ -14825,53 +14825,53 @@
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S137" s="1"/>
       <c r="T137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="V137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
@@ -14896,7 +14896,7 @@
       <c r="AS137" s="1"/>
       <c r="AT137" s="1"/>
       <c r="AU137" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV137" s="1"/>
       <c r="AW137" s="3"/>
@@ -14933,53 +14933,53 @@
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S138" s="1"/>
       <c r="T138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
@@ -15004,7 +15004,7 @@
       <c r="AS138" s="1"/>
       <c r="AT138" s="1"/>
       <c r="AU138" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV138" s="1"/>
       <c r="AW138" s="3"/>
@@ -15041,53 +15041,53 @@
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S139" s="1"/>
       <c r="T139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
@@ -15112,7 +15112,7 @@
       <c r="AS139" s="1"/>
       <c r="AT139" s="1"/>
       <c r="AU139" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AV139" s="1"/>
       <c r="AW139" s="3"/>
@@ -15149,53 +15149,53 @@
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S140" s="1"/>
       <c r="T140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
@@ -15220,7 +15220,7 @@
       <c r="AS140" s="1"/>
       <c r="AT140" s="1"/>
       <c r="AU140" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AV140" s="1"/>
       <c r="AW140" s="3"/>
@@ -15257,53 +15257,53 @@
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S141" s="1"/>
       <c r="T141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
@@ -15328,7 +15328,7 @@
       <c r="AS141" s="1"/>
       <c r="AT141" s="1"/>
       <c r="AU141" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AV141" s="1"/>
       <c r="AW141" s="3"/>
@@ -15365,53 +15365,53 @@
         <v>140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S142" s="1"/>
       <c r="T142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
@@ -15436,7 +15436,7 @@
       <c r="AS142" s="1"/>
       <c r="AT142" s="1"/>
       <c r="AU142" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AV142" s="1"/>
       <c r="AW142" s="3"/>
@@ -15473,57 +15473,57 @@
         <v>141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O143" s="1"/>
       <c r="P143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S143" s="1"/>
       <c r="T143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
@@ -15548,7 +15548,7 @@
       <c r="AS143" s="1"/>
       <c r="AT143" s="1"/>
       <c r="AU143" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AV143" s="1"/>
       <c r="AW143" s="3"/>
@@ -15585,57 +15585,57 @@
         <v>142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O144" s="1"/>
       <c r="P144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S144" s="1"/>
       <c r="T144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
@@ -15660,7 +15660,7 @@
       <c r="AS144" s="1"/>
       <c r="AT144" s="1"/>
       <c r="AU144" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AV144" s="1"/>
       <c r="AW144" s="3"/>
@@ -15697,57 +15697,57 @@
         <v>143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O145" s="1"/>
       <c r="P145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S145" s="1"/>
       <c r="T145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
@@ -15772,7 +15772,7 @@
       <c r="AS145" s="1"/>
       <c r="AT145" s="1"/>
       <c r="AU145" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AV145" s="1"/>
       <c r="AW145" s="3"/>
@@ -15809,57 +15809,57 @@
         <v>144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O146" s="1"/>
       <c r="P146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S146" s="1"/>
       <c r="T146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
@@ -15884,7 +15884,7 @@
       <c r="AS146" s="1"/>
       <c r="AT146" s="1"/>
       <c r="AU146" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV146" s="1"/>
       <c r="AW146" s="3"/>
@@ -15925,13 +15925,13 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -16007,17 +16007,17 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -16056,7 +16056,7 @@
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
       <c r="AU148" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV148" s="1"/>
       <c r="AW148" s="3"/>
@@ -16118,23 +16118,23 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
       <c r="AA149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
       <c r="AD149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF149" s="1"/>
       <c r="AG149" s="1"/>
       <c r="AH149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ149" s="1"/>
       <c r="AK149" s="1"/>
@@ -16146,14 +16146,14 @@
       <c r="AQ149" s="1"/>
       <c r="AR149" s="1"/>
       <c r="AS149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AT149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AU149" s="1"/>
       <c r="AV149" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AW149" s="3"/>
       <c r="AX149" s="3"/>
@@ -16191,11 +16191,11 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -16238,7 +16238,7 @@
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
       <c r="AU150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV150" s="1"/>
       <c r="AW150" s="3"/>
@@ -16275,57 +16275,57 @@
         <v>149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O151" s="1"/>
       <c r="P151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S151" s="1"/>
       <c r="T151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
@@ -16350,7 +16350,7 @@
       <c r="AS151" s="1"/>
       <c r="AT151" s="1"/>
       <c r="AU151" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AV151" s="1"/>
       <c r="AW151" s="3"/>
@@ -16394,14 +16394,14 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L152" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="L152" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -16419,31 +16419,31 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
       <c r="AB152" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC152" s="1"/>
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
       <c r="AF152" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG152" s="1"/>
       <c r="AH152" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
       <c r="AK152" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL152" s="1"/>
       <c r="AM152" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN152" s="1"/>
       <c r="AO152" s="1"/>
       <c r="AP152" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AQ152" s="1"/>
       <c r="AR152" s="1"/>
@@ -16523,7 +16523,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
@@ -16593,17 +16593,17 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -16642,7 +16642,7 @@
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
       <c r="AU154" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AV154" s="1"/>
       <c r="AW154" s="3"/>
@@ -16704,23 +16704,23 @@
       <c r="Y155" s="15"/>
       <c r="Z155" s="15"/>
       <c r="AA155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB155" s="15"/>
       <c r="AC155" s="15"/>
       <c r="AD155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF155" s="15"/>
       <c r="AG155" s="15"/>
       <c r="AH155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AJ155" s="15"/>
       <c r="AK155" s="15"/>
@@ -16732,14 +16732,14 @@
       <c r="AQ155" s="15"/>
       <c r="AR155" s="15"/>
       <c r="AS155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AT155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AU155" s="15"/>
       <c r="AV155" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AW155" s="15"/>
       <c r="AX155" s="15"/>
